--- a/regionseng/6/employment and unemployment/employment and unemployment.xlsx
+++ b/regionseng/6/employment and unemployment/employment and unemployment.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="1" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>Imereti**</t>
-  </si>
-  <si>
-    <t>**Imereti and Racha-Lechkhumi and Kvemo-Svaneti regions are united for time period 2003-2018. From 2019 - only Imereti region.</t>
   </si>
   <si>
     <t>-</t>
@@ -107,10 +104,6 @@
     </r>
   </si>
   <si>
-    <t>*The data for 2010-2019 are recalculated according to the International Labour Organization (ILO) standards adopted at the 19 and 20th International Conference of Labour Statisticians;
-The data for 2003-2009 are in line with the ILO's standards  adopted at the 13th International Conference of Labour Statisticians.</t>
-  </si>
-  <si>
     <t>Labour force</t>
   </si>
   <si>
@@ -127,6 +120,13 @@
       </rPr>
       <t>percentage</t>
     </r>
+  </si>
+  <si>
+    <t>*The data for 2010-2019 are recalculated according to the International Labour Organization (ILO) standards adopted at the 19th and 20th International Conferences of Labour Statisticians;
+The data for 2003-2009 are in line with the ILO's standards  adopted at the 13th International Conference of Labour Statisticians.</t>
+  </si>
+  <si>
+    <t>**Imereti and Racha-Lechkhumi and Kvemo-Svaneti regions are united for time period 2003-2018; From 2019 - only Imereti region.</t>
   </si>
 </sst>
 </file>
@@ -369,7 +369,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -456,14 +456,58 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -789,15 +833,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" style="4" customWidth="1"/>
     <col min="2" max="16" width="8.7109375" style="4" customWidth="1"/>
-    <col min="17" max="20" width="8.7109375" customWidth="1"/>
+    <col min="17" max="21" width="8.7109375" customWidth="1"/>
     <col min="24" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
@@ -844,56 +891,56 @@
       <c r="R2" s="11"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3"/>
+      <c r="A3" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
       <c r="V3"/>
       <c r="W3"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
       <c r="V4"/>
       <c r="W4"/>
     </row>
@@ -901,7 +948,9 @@
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="R5" s="8"/>
-      <c r="T5" s="9" t="s">
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -964,6 +1013,12 @@
       <c r="T6" s="13">
         <v>2021</v>
       </c>
+      <c r="U6" s="13">
+        <v>2022</v>
+      </c>
+      <c r="V6" s="13">
+        <v>2023</v>
+      </c>
     </row>
     <row r="7" spans="1:23" ht="15" customHeight="1">
       <c r="A7" s="28" t="s">
@@ -1026,10 +1081,16 @@
       <c r="T7" s="14">
         <v>427.51608120946514</v>
       </c>
+      <c r="U7" s="36">
+        <v>429.50406687813773</v>
+      </c>
+      <c r="V7" s="51">
+        <v>413.97815031561737</v>
+      </c>
     </row>
     <row r="8" spans="1:23" ht="15" customHeight="1">
       <c r="A8" s="29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="16">
         <v>379.38605017159762</v>
@@ -1087,6 +1148,12 @@
       </c>
       <c r="T8" s="16">
         <v>191.7418994574623</v>
+      </c>
+      <c r="U8" s="37">
+        <v>204.82380860175357</v>
+      </c>
+      <c r="V8" s="52">
+        <v>204.27774529202335</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="15" customHeight="1">
@@ -1150,6 +1217,12 @@
       <c r="T9" s="16">
         <v>147.37093779161117</v>
       </c>
+      <c r="U9" s="37">
+        <v>165.14014123860872</v>
+      </c>
+      <c r="V9" s="52">
+        <v>163.34278932947714</v>
+      </c>
     </row>
     <row r="10" spans="1:23" ht="15" customHeight="1">
       <c r="A10" s="31" t="s">
@@ -1177,40 +1250,46 @@
         <v>86.318233041375748</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P10" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q10" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R10" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S10" s="16">
         <v>103.44384654469914</v>
       </c>
       <c r="T10" s="16">
         <v>101.95730015417313</v>
+      </c>
+      <c r="U10" s="37">
+        <v>114.54639648268306</v>
+      </c>
+      <c r="V10" s="52">
+        <v>116.94358909299173</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="15" customHeight="1">
@@ -1239,40 +1318,46 @@
         <v>202.76329173890042</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J11" s="26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O11" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P11" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q11" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R11" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S11" s="16">
         <v>40.253378555159209</v>
       </c>
       <c r="T11" s="16">
         <v>45.064351274265086</v>
+      </c>
+      <c r="U11" s="37">
+        <v>50.289462031497479</v>
+      </c>
+      <c r="V11" s="52">
+        <v>46.306599444006061</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="15" customHeight="1">
@@ -1301,40 +1386,46 @@
         <v>0</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O12" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P12" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R12" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S12" s="16">
         <v>0.1031142957044833</v>
       </c>
       <c r="T12" s="16">
         <v>0.34928636317293349</v>
+      </c>
+      <c r="U12" s="37">
+        <v>0.3042827244281115</v>
+      </c>
+      <c r="V12" s="52">
+        <v>9.2600792479445457E-2</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="15" customHeight="1">
@@ -1398,6 +1489,12 @@
       <c r="T13" s="16">
         <v>44.370961665851191</v>
       </c>
+      <c r="U13" s="37">
+        <v>39.683667363144785</v>
+      </c>
+      <c r="V13" s="52">
+        <v>40.934955962546098</v>
+      </c>
     </row>
     <row r="14" spans="1:23" ht="15" customHeight="1">
       <c r="A14" s="32" t="s">
@@ -1460,10 +1557,16 @@
       <c r="T14" s="16">
         <v>235.77418175200285</v>
       </c>
+      <c r="U14" s="37">
+        <v>224.68025827638661</v>
+      </c>
+      <c r="V14" s="52">
+        <v>209.70040502359444</v>
+      </c>
     </row>
     <row r="15" spans="1:23" ht="15" customHeight="1">
       <c r="A15" s="33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="19">
         <v>9.0687630110490822</v>
@@ -1522,10 +1625,16 @@
       <c r="T15" s="19">
         <v>23.140983682439646</v>
       </c>
+      <c r="U15" s="38">
+        <v>19.374538357649229</v>
+      </c>
+      <c r="V15" s="53">
+        <v>20.038872028878092</v>
+      </c>
     </row>
     <row r="16" spans="1:23" ht="15" customHeight="1">
       <c r="A16" s="34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B16" s="19">
         <v>69.618192601148394</v>
@@ -1584,10 +1693,16 @@
       <c r="T16" s="19">
         <v>44.850219181232795</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" ht="15" customHeight="1" thickBot="1">
+      <c r="U16" s="38">
+        <v>47.688444510088374</v>
+      </c>
+      <c r="V16" s="53">
+        <v>49.345054838348787</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="15" customHeight="1" thickBot="1">
       <c r="A17" s="35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="22">
         <v>63.30468370157466</v>
@@ -1646,84 +1761,100 @@
       <c r="T17" s="22">
         <v>34.471437278965304</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" ht="15" customHeight="1">
+      <c r="U17" s="39">
+        <v>38.449028536315019</v>
+      </c>
+      <c r="V17" s="54">
+        <v>39.456862446712329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="15" customHeight="1">
       <c r="A18" s="6"/>
       <c r="B18" s="5"/>
     </row>
-    <row r="19" spans="1:20" ht="23.25" customHeight="1">
-      <c r="A19" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
-    </row>
-    <row r="20" spans="1:20" ht="15" customHeight="1">
-      <c r="A20" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
-    </row>
-    <row r="21" spans="1:20" ht="15" customHeight="1">
-      <c r="A21" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
-    </row>
-    <row r="22" spans="1:20">
+    <row r="19" spans="1:24" s="45" customFormat="1" ht="90" customHeight="1">
+      <c r="A19" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+    </row>
+    <row r="20" spans="1:24" s="50" customFormat="1" ht="45" customHeight="1">
+      <c r="A20" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="49"/>
+      <c r="W20" s="49"/>
+    </row>
+    <row r="21" spans="1:24" s="47" customFormat="1" ht="30" customHeight="1">
+      <c r="A21" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
+    </row>
+    <row r="22" spans="1:24">
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
@@ -1737,7 +1868,7 @@
       <c r="L22"/>
       <c r="M22"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:24">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
@@ -1752,13 +1883,6 @@
       <c r="M23"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A3:T3"/>
-    <mergeCell ref="A4:T4"/>
-    <mergeCell ref="A19:T19"/>
-    <mergeCell ref="A20:T20"/>
-    <mergeCell ref="A21:T21"/>
-  </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.43307086614173229" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
